--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="transform_factors" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="affine3d" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="loss_params" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="plan1" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -152,232 +153,229 @@
     <t xml:space="preserve">src_dest_labels</t>
   </si>
   <si>
+    <t xml:space="preserve">fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if True, src_dims are used first then cropped to patch_size. I have not found this to add to accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples_per_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[256,256,64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[160,160,160]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,160]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[220,220,110]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[256,256,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[64,96,128,160,256]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[48,64,96,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgbg_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[None,tumour]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,2,2,2,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake_tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,1.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute value shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25],[.25,.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_monai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0.785]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20,0.2,0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate worsens dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15,0.15,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lm_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8,.8,1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_indices_exclude</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode</t>
   </si>
   <si>
-    <t xml:space="preserve">lbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.8,0.8,1.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,0.77,0.8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,0.77,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1,1,2.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if True, src_dims are used first then cropped to patch_size. I have not found this to add to accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samples_per_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src_dims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[256,256,64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[160,160,160]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,160]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[220,220,110]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[256,256,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[64,96,128,160,256]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[48,64,96,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgbg_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[None,tumour]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4,2,2,2,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake_tumours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tune_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,1.3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute value shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25],[.25,.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_monai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotate_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,0.785]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20,0.2,0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate worsens dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,0.15,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">softmax</t>
+    <t xml:space="preserve">src</t>
   </si>
 </sst>
 </file>
@@ -461,7 +459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,11 +484,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,10 +516,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="12:12 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="B:B E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -868,19 +870,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="12:12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.02"/>
   </cols>
@@ -923,134 +925,124 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
+      <c r="D4" s="1"/>
+      <c r="E4" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E6" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="K7" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>62</v>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
@@ -1059,16 +1051,19 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>128</v>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>8</v>
@@ -1077,81 +1072,43 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>96</v>
+      <c r="E11" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1171,16 +1128,16 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="12:12 G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="B:B G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,13 +1151,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>4</v>
@@ -1208,119 +1165,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.1</v>
@@ -1331,55 +1288,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1389,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>24</v>
@@ -1421,14 +1378,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="12:12 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="B:B E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.04"/>
   </cols>
@@ -1450,33 +1407,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1486,30 +1443,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1522,13 +1479,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1557,14 +1514,14 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="12:12 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B:B A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,24 +1541,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="0" t="n">
@@ -1610,7 +1567,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1622,19 +1579,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1658,4 +1615,84 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve">[0,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cache_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds_type</t>
   </si>
   <si>
     <t xml:space="preserve">plan</t>
@@ -516,10 +522,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="B:B E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -872,17 +878,17 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.02"/>
   </cols>
@@ -1092,18 +1098,33 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="2" t="n">
+      <c r="B13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1128,16 +1149,16 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="B:B G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,13 +1172,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>4</v>
@@ -1165,119 +1186,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.1</v>
@@ -1288,55 +1309,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1346,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>24</v>
@@ -1378,10 +1399,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="B:B E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -1407,33 +1428,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1443,30 +1464,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1479,13 +1500,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1514,10 +1535,10 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B:B A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
@@ -1541,24 +1562,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="0" t="n">
@@ -1567,7 +1588,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1579,19 +1600,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1624,11 +1645,11 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
   </cols>
@@ -1655,33 +1676,33 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="model_params" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dataset_params" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="transform_factors" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="affine3d" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="loss_params" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="plan1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="dataset_params" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="transform_factors" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="affine3d" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="loss_params" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="plan1" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">compiled</t>
   </si>
   <si>
-    <t xml:space="preserve">src_dest_labels</t>
-  </si>
-  <si>
     <t xml:space="preserve">fold</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t xml:space="preserve">datasources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill it up</t>
   </si>
   <si>
     <t xml:space="preserve">lm_groups</t>
@@ -470,35 +470,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,8 +514,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -527,316 +633,316 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.0005</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="D10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="D12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="D14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="n">
+      <c r="D17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -872,261 +978,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.03"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="I9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1142,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1154,228 +1249,228 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="15.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="F4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1392,7 +1487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1404,115 +1499,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1528,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1540,85 +1635,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1639,69 +1734,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
     </row>

--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -187,18 +187,6 @@
   </si>
   <si>
     <t xml:space="preserve">[256,256,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[64,96,128,160,256]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[48,64,96,128]</t>
   </si>
   <si>
     <t xml:space="preserve">fgbg_ratio</t>
@@ -628,7 +616,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="7:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,7 +973,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="7:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1102,47 +1090,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>128</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>96</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1155,12 +1117,12 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -1179,10 +1141,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1194,7 +1156,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0.3</v>
@@ -1203,13 +1165,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3"/>
       <c r="D14" s="8"/>
@@ -1244,7 +1206,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="7:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1267,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1281,119 +1243,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1404,55 +1366,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1462,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1494,7 +1456,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="7:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,33 +1485,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1559,30 +1521,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1595,13 +1557,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1630,7 +1592,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1657,24 +1619,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1683,7 +1645,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1695,19 +1657,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1741,7 +1703,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="7:8 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1771,36 +1733,36 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t xml:space="preserve">src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dest_labels</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="7:8"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A7 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,8 +975,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="7:8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1206,7 +1209,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="7:8"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="A7 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1456,7 +1459,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="7:8"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A7 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1592,7 +1595,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1702,8 +1705,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="7:8 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1765,7 +1768,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -213,7 +213,13 @@
     <t xml:space="preserve">ds_type</t>
   </si>
   <si>
-    <t xml:space="preserve">plan</t>
+    <t xml:space="preserve">plan_train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan_valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the plan used to create validation dataset regardless of which plan training dataset is from. This ensures dice scores of validation ds are comparable across plans</t>
   </si>
   <si>
     <t xml:space="preserve">tune_p</t>
@@ -619,7 +625,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A7 E7"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -975,8 +981,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A7 A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,18 +1178,33 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="3"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1209,7 +1230,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="A7 G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,13 +1253,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1246,119 +1267,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1369,55 +1390,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1427,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1459,7 +1480,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A7 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1488,33 +1509,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1524,30 +1545,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1560,13 +1581,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1622,24 +1643,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1648,7 +1669,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1660,19 +1681,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1705,7 +1726,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1736,41 +1757,41 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -982,7 +982,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_lung.xlsx
+++ b/configurations/experiment_configs_lung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,6 +14,7 @@
     <sheet name="affine3d" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="loss_params" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="plan1" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="plan2" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -379,6 +380,39 @@
   </si>
   <si>
     <t xml:space="preserve">src_dest_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lidc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imported_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSL.lungs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_imported_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim1</t>
   </si>
 </sst>
 </file>
@@ -981,8 +1015,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1186,7 +1220,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1200,7 +1234,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>64</v>
@@ -1804,4 +1838,264 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>